--- a/output/1Y_P13_1VAL-D.xlsx
+++ b/output/1Y_P13_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>886.1477</v>
       </c>
-      <c r="G2" s="1">
-        <v>886.1477</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.160400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.2848</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.160400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E3" s="1">
+        <v>886.1477</v>
+      </c>
       <c r="F3" s="1">
         <v>898.1417</v>
       </c>
-      <c r="G3" s="1">
-        <v>1784.2895</v>
-      </c>
       <c r="H3" s="1">
-        <v>19763.504</v>
+        <v>9815.326800000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.2089</v>
+        <v>9815.326800000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.2848</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19763.504</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E4" s="1">
+        <v>1784.2895</v>
+      </c>
       <c r="F4" s="1">
         <v>916.8928</v>
       </c>
-      <c r="G4" s="1">
-        <v>2701.1823</v>
-      </c>
       <c r="H4" s="1">
-        <v>29307.2879</v>
+        <v>19359.184</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>11.1062</v>
+        <v>19359.184</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>11.2089</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29307.2879</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0153</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E5" s="1">
+        <v>2701.1823</v>
+      </c>
       <c r="F5" s="1">
         <v>860.0893</v>
       </c>
-      <c r="G5" s="1">
-        <v>3561.2716</v>
-      </c>
       <c r="H5" s="1">
-        <v>41190.7356</v>
+        <v>31242.685</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>11.2319</v>
+        <v>31242.685</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>11.1062</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41190.7356</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0479</v>
+        <v>0.06419999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E6" s="1">
+        <v>3561.2716</v>
+      </c>
       <c r="F6" s="1">
         <v>812.3807</v>
       </c>
-      <c r="G6" s="1">
-        <v>4373.6523</v>
-      </c>
       <c r="H6" s="1">
-        <v>53557.9963</v>
+        <v>43609.9074</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>11.4321</v>
+        <v>43609.9074</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>11.2319</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53557.9963</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0462</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E7" s="1">
+        <v>4373.6523</v>
+      </c>
       <c r="F7" s="1">
         <v>746.9598999999999</v>
       </c>
-      <c r="G7" s="1">
-        <v>5120.6121</v>
-      </c>
       <c r="H7" s="1">
-        <v>68197.3367</v>
+        <v>58249.1757</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>11.7173</v>
+        <v>58249.1757</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>11.4321</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68197.3367</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.073</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E8" s="1">
+        <v>5120.6121</v>
+      </c>
       <c r="F8" s="1">
         <v>751.0834</v>
       </c>
-      <c r="G8" s="1">
-        <v>5871.6956</v>
-      </c>
       <c r="H8" s="1">
-        <v>77770.60799999999</v>
+        <v>67822.5079</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>11.9216</v>
+        <v>67822.5079</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>11.7173</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.6</v>
       </c>
-      <c r="L8" s="1">
-        <v>2765.1306</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-7234.8694</v>
+        <v>2361.7722</v>
       </c>
       <c r="O8" s="1">
-        <v>2765.1306</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>80535.7386</v>
+        <v>-7638.2278</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0299</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E9" s="1">
+        <v>5871.6956</v>
+      </c>
       <c r="F9" s="1">
-        <v>769.1262</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6640.8217</v>
+        <v>763.2465999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>90644.5604</v>
+        <v>80146.29610000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80553.0261</v>
+        <v>2361.7722</v>
       </c>
       <c r="J9" s="1">
-        <v>12.13</v>
+        <v>82508.0683</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70472.3544</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>12.002</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10553.0261</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2212.1044</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>92856.6649</v>
+        <v>-10472.3544</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0256</v>
+        <v>0.0602</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E10" s="1">
+        <v>6634.9422</v>
+      </c>
       <c r="F10" s="1">
-        <v>743.061</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7383.8827</v>
+        <v>737.3807</v>
       </c>
       <c r="H10" s="1">
-        <v>104322.4484</v>
+        <v>93741.1177</v>
       </c>
       <c r="I10" s="1">
-        <v>91106.05220000001</v>
+        <v>1889.4178</v>
       </c>
       <c r="J10" s="1">
-        <v>12.3385</v>
+        <v>95630.5355</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80944.7089</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>12.1998</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10553.0261</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1659.0783</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>105981.5267</v>
+        <v>-10472.3544</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0304</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E11" s="1">
+        <v>7372.3229</v>
+      </c>
       <c r="F11" s="1">
-        <v>754.4558</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8138.3385</v>
+        <v>748.6884</v>
       </c>
       <c r="H11" s="1">
-        <v>113245.7943</v>
+        <v>102586.6107</v>
       </c>
       <c r="I11" s="1">
-        <v>101659.0783</v>
+        <v>1417.0633</v>
       </c>
       <c r="J11" s="1">
-        <v>12.4914</v>
+        <v>104003.6741</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91417.06329999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10553.0261</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1106.0522</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>114351.8465</v>
+        <v>-10472.3544</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0141</v>
+        <v>-0.0154</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E12" s="1">
+        <v>8121.0114</v>
+      </c>
       <c r="F12" s="1">
-        <v>819.2198</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8957.5584</v>
+        <v>812.9574</v>
       </c>
       <c r="H12" s="1">
-        <v>114791.1103</v>
+        <v>104070.7606</v>
       </c>
       <c r="I12" s="1">
-        <v>112212.1044</v>
+        <v>944.7089</v>
       </c>
       <c r="J12" s="1">
-        <v>12.5271</v>
+        <v>105015.4695</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101889.4178</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.5464</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10553.0261</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>553.0261</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115344.1364</v>
+        <v>-10472.3544</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.07240000000000001</v>
+        <v>-0.0788</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E13" s="1">
+        <v>8933.968800000001</v>
+      </c>
       <c r="F13" s="1">
-        <v>821.1897</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9778.748</v>
+        <v>814.9121</v>
       </c>
       <c r="H13" s="1">
-        <v>125013.4703</v>
+        <v>114213.6433</v>
       </c>
       <c r="I13" s="1">
-        <v>122765.1306</v>
+        <v>472.3544</v>
       </c>
       <c r="J13" s="1">
-        <v>12.5543</v>
+        <v>114685.9977</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112361.7722</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.5769</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10553.0261</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>125013.4703</v>
+        <v>-10472.3544</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0026</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E14" s="1">
+        <v>9748.8809</v>
+      </c>
       <c r="F14" s="1">
-        <v>-9778.748</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-8933.968800000001</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>134432.1931</v>
       </c>
       <c r="I14" s="1">
-        <v>122765.1306</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>12.5543</v>
+        <v>134432.1931</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112361.7722</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.5256</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>134844.0456</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>134844.0456</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134844.0456</v>
+        <v>123194.9621</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0013</v>
+        <v>0.07820000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>11.2848</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>886.1477</v>
       </c>
       <c r="G2" s="1">
-        <v>886.1477</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.160400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.2848</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.160400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>11.1341</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>886.1477</v>
       </c>
       <c r="F3" s="1">
         <v>898.1417</v>
       </c>
       <c r="G3" s="1">
-        <v>1784.2895</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19763.504</v>
+        <v>9815.326800000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.2089</v>
+        <v>9815.326800000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.2848</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19763.504</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>10.9064</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1784.2895</v>
       </c>
       <c r="F4" s="1">
         <v>916.8928</v>
       </c>
       <c r="G4" s="1">
-        <v>2701.1823</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29307.2879</v>
+        <v>19359.184</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>11.1062</v>
+        <v>19359.184</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>11.2089</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29307.2879</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0153</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>11.6267</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2701.1823</v>
       </c>
       <c r="F5" s="1">
         <v>757.1405999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>3458.3229</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31242.685</v>
       </c>
       <c r="I5" s="1">
-        <v>38803.0463</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>11.2202</v>
+        <v>31242.685</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28803.0463</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.6631</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8803.0463</v>
       </c>
-      <c r="O5" s="1">
-        <v>1196.9537</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41196.9537</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0481</v>
+        <v>0.06419999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>12.3095</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>3458.3229</v>
       </c>
       <c r="F6" s="1">
         <v>624.7763</v>
       </c>
       <c r="G6" s="1">
-        <v>4083.0992</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>42349.2387</v>
       </c>
       <c r="I6" s="1">
-        <v>46493.7307</v>
+        <v>1196.9537</v>
       </c>
       <c r="J6" s="1">
-        <v>11.3869</v>
+        <v>43546.1925</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36493.7307</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.5524</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7690.6845</v>
       </c>
-      <c r="O6" s="1">
-        <v>3506.2693</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53506.2693</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0451</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>13.3876</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>4083.0992</v>
       </c>
       <c r="F7" s="1">
         <v>422.0141</v>
       </c>
       <c r="G7" s="1">
-        <v>4505.1133</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>54379.5322</v>
       </c>
       <c r="I7" s="1">
-        <v>52143.4863</v>
+        <v>3506.2693</v>
       </c>
       <c r="J7" s="1">
-        <v>11.5743</v>
+        <v>57885.8015</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>42143.4863</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.3214</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-5649.7555</v>
       </c>
-      <c r="O7" s="1">
-        <v>7856.5137</v>
-      </c>
-      <c r="P7" s="1">
-        <v>67856.5137</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.06850000000000001</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>13.3141</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4505.1133</v>
       </c>
       <c r="F8" s="1">
         <v>779.8999</v>
       </c>
       <c r="G8" s="1">
-        <v>5285.0132</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>59670.2257</v>
       </c>
       <c r="I8" s="1">
-        <v>62527.1516</v>
+        <v>7856.5137</v>
       </c>
       <c r="J8" s="1">
-        <v>11.831</v>
+        <v>67526.73940000001</v>
       </c>
       <c r="K8" s="1">
+        <v>52527.1516</v>
+      </c>
+      <c r="L8" s="1">
+        <v>11.6595</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.6</v>
       </c>
-      <c r="L8" s="1">
-        <v>2432.7612</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-7950.9042</v>
+        <v>2204.8736</v>
       </c>
       <c r="O8" s="1">
-        <v>9905.6095</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>79905.60950000001</v>
+        <v>-8178.7918</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0263</v>
+        <v>-0.0053</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>13.7208</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>5285.0132</v>
       </c>
       <c r="F9" s="1">
         <v>575.9644</v>
       </c>
       <c r="G9" s="1">
-        <v>5860.9776</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>72138.31630000001</v>
       </c>
       <c r="I9" s="1">
-        <v>70429.844</v>
+        <v>9677.7219</v>
       </c>
       <c r="J9" s="1">
-        <v>12.0167</v>
+        <v>81816.0383</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>60429.844</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>11.4342</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7902.6923</v>
       </c>
-      <c r="O9" s="1">
-        <v>12002.9172</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92002.9172</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0233</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>14.2021</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5860.9776</v>
       </c>
       <c r="F10" s="1">
         <v>509.1705</v>
       </c>
       <c r="G10" s="1">
-        <v>6370.1481</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>82806.23609999999</v>
       </c>
       <c r="I10" s="1">
-        <v>77661.13370000001</v>
+        <v>11775.0296</v>
       </c>
       <c r="J10" s="1">
-        <v>12.1914</v>
+        <v>94581.2657</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>67661.13370000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>11.5443</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7231.2898</v>
       </c>
-      <c r="O10" s="1">
-        <v>14771.6274</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104771.6274</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0271</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>13.9876</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6370.1481</v>
       </c>
       <c r="F11" s="1">
         <v>816.2897</v>
       </c>
       <c r="G11" s="1">
-        <v>7186.4378</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>88641.24739999999</v>
       </c>
       <c r="I11" s="1">
-        <v>89079.0673</v>
+        <v>14543.7398</v>
       </c>
       <c r="J11" s="1">
-        <v>12.3954</v>
+        <v>103184.9873</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>79079.0673</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.414</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11417.9336</v>
       </c>
-      <c r="O11" s="1">
-        <v>13353.6939</v>
-      </c>
-      <c r="P11" s="1">
-        <v>113353.6939</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0124</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>12.8818</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7186.4378</v>
       </c>
       <c r="F12" s="1">
         <v>1397.2532</v>
       </c>
       <c r="G12" s="1">
-        <v>8583.691000000001</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>92094.1998</v>
       </c>
       <c r="I12" s="1">
-        <v>107078.204</v>
+        <v>13125.8063</v>
       </c>
       <c r="J12" s="1">
-        <v>12.4746</v>
+        <v>105220.0061</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97078.204</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.5085</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-17999.1367</v>
       </c>
-      <c r="O12" s="1">
-        <v>5354.5572</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115354.5572</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0648</v>
+        <v>-0.0704</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>12.8509</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>8583.691000000001</v>
       </c>
       <c r="F13" s="1">
         <v>802.8955999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>9386.586600000001</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>109735.6223</v>
       </c>
       <c r="I13" s="1">
-        <v>117396.1348</v>
+        <v>5126.6696</v>
       </c>
       <c r="J13" s="1">
-        <v>12.5068</v>
+        <v>114862.2919</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>107396.1348</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.5116</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10317.9308</v>
       </c>
-      <c r="O13" s="1">
-        <v>5036.6263</v>
-      </c>
-      <c r="P13" s="1">
-        <v>125036.6263</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0025</v>
+        <v>-0.0031</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>13.8614</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9386.586600000001</v>
       </c>
       <c r="F14" s="1">
         <v>-9386.586600000001</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129436.3355</v>
       </c>
       <c r="I14" s="1">
-        <v>117396.1348</v>
+        <v>4808.7387</v>
       </c>
       <c r="J14" s="1">
-        <v>12.5068</v>
+        <v>134245.0742</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>107396.1348</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.4414</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>129436.3355</v>
       </c>
-      <c r="O14" s="1">
-        <v>134472.9618</v>
-      </c>
-      <c r="P14" s="1">
-        <v>134472.9618</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0042</v>
+        <v>0.0751</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>11.2848</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>886.1477</v>
       </c>
       <c r="G2" s="1">
-        <v>886.1477</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.160400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.2848</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.160400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>11.1341</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>886.1477</v>
       </c>
       <c r="F3" s="1">
         <v>898.1417</v>
       </c>
       <c r="G3" s="1">
-        <v>1784.2895</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19763.504</v>
+        <v>9815.326800000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.2089</v>
+        <v>9815.326800000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.2848</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19763.504</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>10.9064</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1784.2895</v>
       </c>
       <c r="F4" s="1">
         <v>916.8928</v>
       </c>
       <c r="G4" s="1">
-        <v>2701.1823</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29307.2879</v>
+        <v>19359.184</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>11.1062</v>
+        <v>19359.184</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>11.2089</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29307.2879</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0153</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>11.6267</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2701.1823</v>
       </c>
       <c r="F5" s="1">
         <v>783.1646</v>
       </c>
       <c r="G5" s="1">
-        <v>3484.3469</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31242.685</v>
       </c>
       <c r="I5" s="1">
-        <v>39105.6194</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>11.2232</v>
+        <v>31242.685</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29105.6194</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.7751</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9105.6194</v>
       </c>
-      <c r="O5" s="1">
-        <v>894.3806</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41195.3819</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.048</v>
+        <v>0.06419999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>12.3095</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>3484.3469</v>
       </c>
       <c r="F6" s="1">
         <v>639.788</v>
       </c>
       <c r="G6" s="1">
-        <v>4124.1349</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>42667.9181</v>
       </c>
       <c r="I6" s="1">
-        <v>46981.09</v>
+        <v>894.3806</v>
       </c>
       <c r="J6" s="1">
-        <v>11.3917</v>
+        <v>43562.2987</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36981.09</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.6135</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7875.4706</v>
       </c>
-      <c r="O6" s="1">
-        <v>3018.91</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53521.4163</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0454</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>13.3876</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>4124.1349</v>
       </c>
       <c r="F7" s="1">
         <v>437.6692</v>
       </c>
       <c r="G7" s="1">
-        <v>4561.8041</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>54926.0533</v>
       </c>
       <c r="I7" s="1">
-        <v>52840.4297</v>
+        <v>3018.91</v>
       </c>
       <c r="J7" s="1">
-        <v>11.5832</v>
+        <v>57944.9634</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>42840.4297</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.3877</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-5859.3397</v>
       </c>
-      <c r="O7" s="1">
-        <v>7159.5703</v>
-      </c>
-      <c r="P7" s="1">
-        <v>67914.5891</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0692</v>
+        <v>0.0818</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>13.3141</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4561.8041</v>
       </c>
       <c r="F8" s="1">
         <v>803.1482999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>5364.9524</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>60421.0947</v>
       </c>
       <c r="I8" s="1">
-        <v>63533.6264</v>
+        <v>7159.5703</v>
       </c>
       <c r="J8" s="1">
-        <v>11.8423</v>
+        <v>67580.6651</v>
       </c>
       <c r="K8" s="1">
+        <v>53533.6264</v>
+      </c>
+      <c r="L8" s="1">
+        <v>11.7352</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.6</v>
       </c>
-      <c r="L8" s="1">
-        <v>2463.3742</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-8229.8225</v>
+        <v>2227.0328</v>
       </c>
       <c r="O8" s="1">
-        <v>8929.747799999999</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>79988.5417</v>
+        <v>-8466.1639</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0266</v>
+        <v>-0.0054</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>13.7208</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>5364.9524</v>
       </c>
       <c r="F9" s="1">
         <v>599.6245</v>
       </c>
       <c r="G9" s="1">
-        <v>5964.5768</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>73229.45359999999</v>
       </c>
       <c r="I9" s="1">
-        <v>71760.95389999999</v>
+        <v>8693.406499999999</v>
       </c>
       <c r="J9" s="1">
-        <v>12.0312</v>
+        <v>81922.86010000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>61760.9539</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>11.5119</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8227.327499999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>10702.4203</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92116.5082</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0236</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>14.2021</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5964.5768</v>
       </c>
       <c r="F10" s="1">
         <v>534.4718</v>
       </c>
       <c r="G10" s="1">
-        <v>6499.0486</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>84269.92720000001</v>
       </c>
       <c r="I10" s="1">
-        <v>79351.57550000001</v>
+        <v>10466.079</v>
       </c>
       <c r="J10" s="1">
-        <v>12.2097</v>
+        <v>94736.0062</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>69351.57550000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>11.6272</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7590.6216</v>
       </c>
-      <c r="O10" s="1">
-        <v>13111.7987</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104932.957</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0276</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>13.9876</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6499.0486</v>
       </c>
       <c r="F11" s="1">
         <v>851.2589</v>
       </c>
       <c r="G11" s="1">
-        <v>7350.3075</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>90434.9112</v>
       </c>
       <c r="I11" s="1">
-        <v>91258.6446</v>
+        <v>12875.4573</v>
       </c>
       <c r="J11" s="1">
-        <v>12.4156</v>
+        <v>103310.3686</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>81258.6446</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.5032</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11907.0691</v>
       </c>
-      <c r="O11" s="1">
-        <v>11204.7296</v>
-      </c>
-      <c r="P11" s="1">
-        <v>113484.9936</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0126</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>12.8818</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>7350.3075</v>
       </c>
       <c r="F12" s="1">
         <v>1451.227</v>
       </c>
       <c r="G12" s="1">
-        <v>8801.534600000001</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>94194.1908</v>
       </c>
       <c r="I12" s="1">
-        <v>109953.0612</v>
+        <v>10968.3882</v>
       </c>
       <c r="J12" s="1">
-        <v>12.4925</v>
+        <v>105162.579</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99953.0612</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.5985</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-18694.4166</v>
       </c>
-      <c r="O12" s="1">
-        <v>2510.313</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115301.9784</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0663</v>
+        <v>-0.07190000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>12.8509</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>8801.534600000001</v>
       </c>
       <c r="F13" s="1">
         <v>847.5341</v>
       </c>
       <c r="G13" s="1">
-        <v>9649.0687</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>112520.5781</v>
       </c>
       <c r="I13" s="1">
-        <v>120844.6373</v>
+        <v>2273.9716</v>
       </c>
       <c r="J13" s="1">
-        <v>12.524</v>
+        <v>114794.5498</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110844.6373</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.5938</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10891.5761</v>
       </c>
-      <c r="O13" s="1">
-        <v>1618.7369</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124974.3606</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0026</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>13.8614</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9649.0687</v>
       </c>
       <c r="F14" s="1">
         <v>-9649.0687</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>133055.8325</v>
       </c>
       <c r="I14" s="1">
-        <v>120844.6373</v>
+        <v>1382.3955</v>
       </c>
       <c r="J14" s="1">
-        <v>12.524</v>
+        <v>134438.228</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110844.6373</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.4876</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>133055.8325</v>
       </c>
-      <c r="O14" s="1">
-        <v>134674.5693</v>
-      </c>
-      <c r="P14" s="1">
-        <v>134674.5693</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0022</v>
+        <v>0.07729999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>11.2848</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>886.1477</v>
       </c>
       <c r="G2" s="1">
-        <v>886.1477</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.160400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.2848</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.160400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>11.1341</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>886.1477</v>
       </c>
       <c r="F3" s="1">
         <v>898.1417</v>
       </c>
       <c r="G3" s="1">
-        <v>1784.2895</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19763.504</v>
+        <v>9815.326800000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.2089</v>
+        <v>9815.326800000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.2848</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19763.504</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>10.9064</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1784.2895</v>
       </c>
       <c r="F4" s="1">
         <v>916.8928</v>
       </c>
       <c r="G4" s="1">
-        <v>2701.1823</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29307.2879</v>
+        <v>19359.184</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>11.1062</v>
+        <v>19359.184</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>11.2089</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29307.2879</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0153</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>11.6267</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2701.1823</v>
       </c>
       <c r="F5" s="1">
         <v>809.3621000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>3510.5444</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31242.685</v>
       </c>
       <c r="I5" s="1">
-        <v>39410.2104</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>11.2262</v>
+        <v>31242.685</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29410.2104</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.8879</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9410.2104</v>
       </c>
-      <c r="O5" s="1">
-        <v>589.7896</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41193.7996</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.048</v>
+        <v>0.06419999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>12.3095</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>3510.5444</v>
       </c>
       <c r="F6" s="1">
         <v>655.0375</v>
       </c>
       <c r="G6" s="1">
-        <v>4165.5819</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42988.7228</v>
       </c>
       <c r="I6" s="1">
-        <v>47473.3946</v>
+        <v>589.7896</v>
       </c>
       <c r="J6" s="1">
-        <v>11.3966</v>
+        <v>43578.5124</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37473.3946</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.6745</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8063.1842</v>
       </c>
-      <c r="O6" s="1">
-        <v>2526.6054</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53536.6555</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0458</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>13.3876</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>4165.5819</v>
       </c>
       <c r="F7" s="1">
         <v>453.6722</v>
       </c>
       <c r="G7" s="1">
-        <v>4619.2541</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>55478.0533</v>
       </c>
       <c r="I7" s="1">
-        <v>53546.9768</v>
+        <v>2526.6054</v>
       </c>
       <c r="J7" s="1">
-        <v>11.5921</v>
+        <v>58004.6587</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>43546.9768</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.454</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6073.5822</v>
       </c>
-      <c r="O7" s="1">
-        <v>6453.0232</v>
-      </c>
-      <c r="P7" s="1">
-        <v>67973.1738</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0698</v>
+        <v>0.08260000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>13.3141</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4619.2541</v>
       </c>
       <c r="F8" s="1">
         <v>826.9786</v>
       </c>
       <c r="G8" s="1">
-        <v>5446.2327</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>61182.0212</v>
       </c>
       <c r="I8" s="1">
-        <v>64557.4519</v>
+        <v>6453.0232</v>
       </c>
       <c r="J8" s="1">
-        <v>11.8536</v>
+        <v>67635.0444</v>
       </c>
       <c r="K8" s="1">
+        <v>54557.4519</v>
+      </c>
+      <c r="L8" s="1">
+        <v>11.8109</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.6</v>
       </c>
-      <c r="L8" s="1">
-        <v>2494.3972</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-8516.0779</v>
+        <v>2249.4142</v>
       </c>
       <c r="O8" s="1">
-        <v>7936.9453</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>80072.2974</v>
+        <v>-8761.0609</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0269</v>
+        <v>-0.0054</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>13.7208</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5446.2327</v>
       </c>
       <c r="F9" s="1">
         <v>624.0335</v>
       </c>
       <c r="G9" s="1">
-        <v>6070.2662</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>74338.8979</v>
       </c>
       <c r="I9" s="1">
-        <v>73119.6909</v>
+        <v>7691.9623</v>
       </c>
       <c r="J9" s="1">
-        <v>12.0455</v>
+        <v>82030.8602</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63119.6909</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>11.5896</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8562.239</v>
       </c>
-      <c r="O9" s="1">
-        <v>9374.706399999999</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92231.412</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.024</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>14.2021</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>6070.2662</v>
       </c>
       <c r="F10" s="1">
         <v>560.7233</v>
       </c>
       <c r="G10" s="1">
-        <v>6630.9895</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>85763.1491</v>
       </c>
       <c r="I10" s="1">
-        <v>81083.1398</v>
+        <v>9129.723400000001</v>
       </c>
       <c r="J10" s="1">
-        <v>12.2279</v>
+        <v>94892.8725</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>71083.1398</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>11.7101</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7963.4489</v>
       </c>
-      <c r="O10" s="1">
-        <v>11411.2575</v>
-      </c>
-      <c r="P10" s="1">
-        <v>105096.5302</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.028</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>13.9876</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>6630.9895</v>
       </c>
       <c r="F11" s="1">
         <v>887.6144</v>
       </c>
       <c r="G11" s="1">
-        <v>7518.6039</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>92270.8826</v>
       </c>
       <c r="I11" s="1">
-        <v>93498.7346</v>
+        <v>11166.2745</v>
       </c>
       <c r="J11" s="1">
-        <v>12.4357</v>
+        <v>103437.1571</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>83498.7346</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.5922</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12415.5948</v>
       </c>
-      <c r="O11" s="1">
-        <v>8995.6626</v>
-      </c>
-      <c r="P11" s="1">
-        <v>113617.788</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0128</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>12.8818</v>
       </c>
       <c r="E12" s="1">
+        <v>7518.6039</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1455.5947</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>1474.6124</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8993.216399999999</v>
-      </c>
       <c r="H12" s="1">
-        <v>115248.0678</v>
+        <v>96350.90919999999</v>
       </c>
       <c r="I12" s="1">
-        <v>112494.3972</v>
+        <v>8750.679599999999</v>
       </c>
       <c r="J12" s="1">
-        <v>12.5088</v>
+        <v>105101.5889</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102249.4142</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.5995</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-18995.6626</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115248.0678</v>
+        <v>-18750.6796</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0677</v>
+        <v>-0.0735</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>12.8509</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8974.1986</v>
       </c>
       <c r="F13" s="1">
         <v>778.1556</v>
       </c>
       <c r="G13" s="1">
-        <v>9771.371999999999</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>124919.1737</v>
+        <v>114727.9498</v>
       </c>
       <c r="I13" s="1">
-        <v>122494.3972</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>12.536</v>
+        <v>114727.9498</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112249.4142</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.508</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124919.1737</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0026</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>13.8614</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9752.3542</v>
       </c>
       <c r="F14" s="1">
-        <v>-9771.371999999999</v>
+        <v>-9752.3542</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>134480.0885</v>
       </c>
       <c r="I14" s="1">
-        <v>122494.3972</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>12.536</v>
+        <v>134480.0885</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112249.4142</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.51</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>134742.334</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>134742.334</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134742.334</v>
+        <v>134480.0885</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0013</v>
+        <v>0.07820000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>11.2848</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>886.1477</v>
       </c>
       <c r="G2" s="1">
-        <v>886.1477</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.160400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.2848</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.160400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>11.1341</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>886.1477</v>
       </c>
       <c r="F3" s="1">
         <v>898.1417</v>
       </c>
       <c r="G3" s="1">
-        <v>1784.2895</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19763.504</v>
+        <v>9815.326800000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.2089</v>
+        <v>9815.326800000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.2848</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19763.504</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>10.9064</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1784.2895</v>
       </c>
       <c r="F4" s="1">
         <v>916.8928</v>
       </c>
       <c r="G4" s="1">
-        <v>2701.1823</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29307.2879</v>
+        <v>19359.184</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>11.1062</v>
+        <v>19359.184</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>11.2089</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29307.2879</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0153</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>11.6267</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2701.1823</v>
       </c>
       <c r="F5" s="1">
         <v>835.7338999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>3536.9162</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31242.685</v>
       </c>
       <c r="I5" s="1">
-        <v>39716.827</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>11.2292</v>
+        <v>31242.685</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29716.827</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>11.0014</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9716.826999999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>283.173</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41192.2067</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.048</v>
+        <v>0.06419999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>12.3095</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>3536.9162</v>
       </c>
       <c r="F6" s="1">
         <v>670.5272</v>
       </c>
       <c r="G6" s="1">
-        <v>4207.4434</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>43311.6609</v>
       </c>
       <c r="I6" s="1">
-        <v>47970.6821</v>
+        <v>283.173</v>
       </c>
       <c r="J6" s="1">
-        <v>11.4014</v>
+        <v>43594.8339</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37970.6821</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.7355</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8253.855</v>
       </c>
-      <c r="O6" s="1">
-        <v>2029.3179</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53551.9872</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0461</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>13.3876</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>4207.4434</v>
       </c>
       <c r="F7" s="1">
         <v>470.0287</v>
       </c>
       <c r="G7" s="1">
-        <v>4677.4721</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>56035.5731</v>
       </c>
       <c r="I7" s="1">
-        <v>54263.2383</v>
+        <v>2029.3179</v>
       </c>
       <c r="J7" s="1">
-        <v>11.601</v>
+        <v>58064.891</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>44263.2383</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.5202</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6292.5562</v>
       </c>
-      <c r="O7" s="1">
-        <v>5736.7617</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68032.27099999999</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.07049999999999999</v>
+        <v>0.0834</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>13.3141</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4677.4721</v>
       </c>
       <c r="F8" s="1">
         <v>851.4023</v>
       </c>
       <c r="G8" s="1">
-        <v>5528.8744</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>61953.1183</v>
       </c>
       <c r="I8" s="1">
-        <v>65598.89380000001</v>
+        <v>5736.7617</v>
       </c>
       <c r="J8" s="1">
-        <v>11.8648</v>
+        <v>67689.88009999999</v>
       </c>
       <c r="K8" s="1">
+        <v>55598.8938</v>
+      </c>
+      <c r="L8" s="1">
+        <v>11.8865</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.6</v>
       </c>
-      <c r="L8" s="1">
-        <v>2525.8349</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-8809.8205</v>
+        <v>2272.0195</v>
       </c>
       <c r="O8" s="1">
-        <v>6926.9412</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>80156.88310000001</v>
+        <v>-9063.636</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0272</v>
+        <v>-0.0055</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>13.7208</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5528.8744</v>
       </c>
       <c r="F9" s="1">
         <v>649.2107</v>
       </c>
       <c r="G9" s="1">
-        <v>6178.0852</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>75466.92449999999</v>
       </c>
       <c r="I9" s="1">
-        <v>74506.58409999999</v>
+        <v>6673.1257</v>
       </c>
       <c r="J9" s="1">
-        <v>12.0598</v>
+        <v>82140.0502</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64506.5841</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>11.6672</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8907.6903</v>
       </c>
-      <c r="O9" s="1">
-        <v>8019.2508</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92347.6419</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0243</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>14.2021</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>6178.0852</v>
       </c>
       <c r="F10" s="1">
         <v>587.9547</v>
       </c>
       <c r="G10" s="1">
-        <v>6766.0398</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>87286.45819999999</v>
       </c>
       <c r="I10" s="1">
-        <v>82856.7751</v>
+        <v>7765.4353</v>
       </c>
       <c r="J10" s="1">
-        <v>12.246</v>
+        <v>95051.8936</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72856.7751</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>11.7928</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8350.191000000001</v>
       </c>
-      <c r="O10" s="1">
-        <v>9669.0599</v>
-      </c>
-      <c r="P10" s="1">
-        <v>105262.3768</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0285</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>13.9876</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6766.0398</v>
       </c>
       <c r="F11" s="1">
         <v>925.4045</v>
       </c>
       <c r="G11" s="1">
-        <v>7691.4443</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>94150.12059999999</v>
       </c>
       <c r="I11" s="1">
-        <v>95800.9629</v>
+        <v>9415.2444</v>
       </c>
       <c r="J11" s="1">
-        <v>12.4555</v>
+        <v>103565.365</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>85800.9629</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.6811</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12944.1879</v>
       </c>
-      <c r="O11" s="1">
-        <v>6724.872</v>
-      </c>
-      <c r="P11" s="1">
-        <v>113752.0887</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0131</v>
+        <v>-0.0142</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>12.8818</v>
       </c>
       <c r="E12" s="1">
+        <v>7691.4443</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1278.63</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>1298.3335</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8989.7778</v>
-      </c>
       <c r="H12" s="1">
-        <v>115204.0021</v>
+        <v>98565.8588</v>
       </c>
       <c r="I12" s="1">
-        <v>112525.8349</v>
+        <v>6471.0565</v>
       </c>
       <c r="J12" s="1">
-        <v>12.5171</v>
+        <v>105036.9153</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102272.0195</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.2969</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-16724.872</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115204.0021</v>
+        <v>-16471.0565</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.06909999999999999</v>
+        <v>-0.0751</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>12.8509</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>8970.0744</v>
       </c>
       <c r="F13" s="1">
         <v>778.1556</v>
       </c>
       <c r="G13" s="1">
-        <v>9767.9334</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>124875.214</v>
+        <v>114675.2245</v>
       </c>
       <c r="I13" s="1">
-        <v>122525.8349</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>12.5437</v>
+        <v>114675.2245</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112272.0195</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.5163</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124875.214</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0026</v>
+        <v>-0.0031</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>13.8614</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9748.23</v>
       </c>
       <c r="F14" s="1">
-        <v>-9767.9334</v>
+        <v>-9748.23</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>134423.2171</v>
       </c>
       <c r="I14" s="1">
-        <v>122525.8349</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>12.5437</v>
+        <v>134423.2171</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112272.0195</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.5172</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>134694.9174</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>134694.9174</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134694.9174</v>
+        <v>134423.2171</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0013</v>
+        <v>0.07820000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>13.824</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.5543</v>
+        <v>11.5256</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5068</v>
+        <v>11.4414</v>
       </c>
       <c r="E3" s="1">
-        <v>12.524</v>
+        <v>11.4876</v>
       </c>
       <c r="F3" s="1">
-        <v>12.536</v>
+        <v>11.51</v>
       </c>
       <c r="G3" s="1">
-        <v>12.5437</v>
+        <v>11.5172</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2208</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1381</v>
+        <v>0.2354</v>
       </c>
       <c r="D4" s="3">
-        <v>0.13</v>
+        <v>0.228</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1322</v>
+        <v>0.2305</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1334</v>
+        <v>0.2318</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1338</v>
+        <v>0.2323</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1639</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1281</v>
+        <v>0.1689</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1196</v>
+        <v>0.1585</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1209</v>
+        <v>0.1608</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1223</v>
+        <v>0.1627</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1238</v>
+        <v>0.1642</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.2226</v>
       </c>
       <c r="C6" s="4">
-        <v>0.9191</v>
+        <v>1.2732</v>
       </c>
       <c r="D6" s="4">
-        <v>0.9167</v>
+        <v>1.3104</v>
       </c>
       <c r="E6" s="4">
-        <v>0.9255</v>
+        <v>1.3072</v>
       </c>
       <c r="F6" s="4">
-        <v>0.9249000000000001</v>
+        <v>1.2999</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9171</v>
+        <v>1.2905</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2386</v>
+        <v>0.05</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2543</v>
+        <v>0.2497</v>
       </c>
       <c r="E7" s="3">
-        <v>0.253</v>
+        <v>0.2483</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2501</v>
+        <v>0.2451</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2465</v>
+        <v>0.2414</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2765.1306</v>
+        <v>2361.7722</v>
       </c>
       <c r="D8" s="1">
-        <v>2432.7612</v>
+        <v>2204.8736</v>
       </c>
       <c r="E8" s="1">
-        <v>2463.3742</v>
+        <v>2227.0328</v>
       </c>
       <c r="F8" s="1">
-        <v>2494.3972</v>
+        <v>2249.4142</v>
       </c>
       <c r="G8" s="1">
-        <v>2525.8349</v>
+        <v>2272.0195</v>
       </c>
     </row>
   </sheetData>
